--- a/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
+++ b/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>Nbcc4318977924f4a9f099dfd28400293</t>
+    <t>Nb6aa7595e01d4d01be4dbb4ad104632c</t>
   </si>
   <si>
     <t>float</t>

--- a/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
+++ b/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>Nb6aa7595e01d4d01be4dbb4ad104632c</t>
+    <t>Nf6dda74867754578b9a97d382ae48e4f</t>
   </si>
   <si>
     <t>float</t>

--- a/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
+++ b/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>Nf6dda74867754578b9a97d382ae48e4f</t>
+    <t>N13869d286e554257bbe8a7a7b779ca0b</t>
   </si>
   <si>
     <t>float</t>

--- a/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
+++ b/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>N13869d286e554257bbe8a7a7b779ca0b</t>
+    <t>Nb8683b6d0d5d4ca99f2e6687b2dd762d</t>
   </si>
   <si>
     <t>float</t>

--- a/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
+++ b/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>Nb8683b6d0d5d4ca99f2e6687b2dd762d</t>
+    <t>N1d5e14ff54364f0fab81ce4daba969e4</t>
   </si>
   <si>
     <t>float</t>

--- a/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
+++ b/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>N1d5e14ff54364f0fab81ce4daba969e4</t>
+    <t>N240252f47bb245b8abd74c1d0da319e2</t>
   </si>
   <si>
     <t>float</t>

--- a/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
+++ b/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>N240252f47bb245b8abd74c1d0da319e2</t>
+    <t>N97e71e84663c4d6fa7d3b28cad34c018</t>
   </si>
   <si>
     <t>float</t>

--- a/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
+++ b/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>N97e71e84663c4d6fa7d3b28cad34c018</t>
+    <t>N57d82938f13f44309ebbdae52d097ae2</t>
   </si>
   <si>
     <t>float</t>

--- a/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
+++ b/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>N57d82938f13f44309ebbdae52d097ae2</t>
+    <t>Ndcdf99bd116a46869883f33e09f100d8</t>
   </si>
   <si>
     <t>float</t>

--- a/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
+++ b/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>Ndcdf99bd116a46869883f33e09f100d8</t>
+    <t>N6c1a33ea262c4005867d9608ba09acc7</t>
   </si>
   <si>
     <t>float</t>

--- a/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
+++ b/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>N6c1a33ea262c4005867d9608ba09acc7</t>
+    <t>Nb2e93efed1754a9b909861b188ae8ddc</t>
   </si>
   <si>
     <t>float</t>

--- a/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
+++ b/cognite/neat/workflows/examples/ontologies/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>Nb2e93efed1754a9b909861b188ae8ddc</t>
+    <t>N32c8c5dc4e724bfab033ca7c21741b63</t>
   </si>
   <si>
     <t>float</t>
